--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.16306</v>
-      </c>
-      <c r="C2" t="n">
-        <v>70.30137000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2711</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00317</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.37764</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26.19162</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.32838</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.59856</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.52307</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1150.28</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.81347</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.17844</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5.16838</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.85276</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.3746</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.50582</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.92728</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.07447</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10.69063</v>
-      </c>
-      <c r="V2" t="n">
-        <v>565.12103</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.77949</v>
-      </c>
-      <c r="X2" t="n">
-        <v>13.82829</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>36.69626</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5.88362</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3.60691</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.17607</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>175.27235</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>68.6755</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>6.22135</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.2975</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.24253</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.1875</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8.609830000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.96652</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.9489</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>5.33286</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>70.425</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>25.01655</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.40324</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.11011</v>
-      </c>
-      <c r="C3" t="n">
-        <v>76.19936</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.04735</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00123</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.33737</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27.71584</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.71439</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.80283</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.6894</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1250.18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.82558</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.15184</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.18583</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.07999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.12992</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.39197</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.48541</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.93554</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.63825</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.34883</v>
-      </c>
-      <c r="V3" t="n">
-        <v>644.65329</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.99857</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.42143</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>44.50431</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5.44087</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3.39302</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.37596</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>189.04829</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>65.81134</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>5.38478</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.02928</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.15383</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.43894</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>7.50094</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.14456</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.80607</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>5.41605</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>73.37388</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>25.33958</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.57372</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.31551</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90.64291</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9097499999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00169</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4475</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24.42314</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.73861</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.13826</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.70315</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1401.82</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.85138</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1402</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.13316</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.28074</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.25912</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.37605</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.34108</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.79461</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.90521</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7.02565</v>
-      </c>
-      <c r="V4" t="n">
-        <v>765.17501</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.20094</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21.33468</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>46.08549</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.50069</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3.44653</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.10968</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>194.30727</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>71.60387</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4.75973</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.59581</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.12744</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.37667</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7.28825</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4.58232</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.66923</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>5.1514</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>73.85487000000001</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>29.01403</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.39447</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
